--- a/草稿/关卡背景故事基础设定.xlsx
+++ b/草稿/关卡背景故事基础设定.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC631EB-5681-4D1B-8B3E-287C44CDE2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,18 +81,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个下班回去补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（类似妖灵王ティターニア那种）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/草稿/Tiera.pur</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -183,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,6 +253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -293,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,16 +497,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -492,7 +521,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -511,7 +540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -519,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -527,38 +556,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
